--- a/BR-103907-002_RevB_PCBA_Outputs/PingDevKit Stock Info.xlsx
+++ b/BR-103907-002_RevB_PCBA_Outputs/PingDevKit Stock Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="843">
   <si>
     <t xml:space="preserve"># Boards: </t>
   </si>
@@ -37,7 +37,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-12-19T10:27:42-0800</t>
+    <t>2025-12-19T11:46:41-0800</t>
   </si>
   <si>
     <t>Legend</t>
@@ -1262,6 +1262,24 @@
   </si>
   <si>
     <t>78-SQJ974EP-T1_GE3</t>
+  </si>
+  <si>
+    <t>BRE-000289</t>
+  </si>
+  <si>
+    <t>R1, R2, R3</t>
+  </si>
+  <si>
+    <t>0R Jumper 62.5mW Thick Film Resistor 0402</t>
+  </si>
+  <si>
+    <t>CR0402-J/-000GLF</t>
+  </si>
+  <si>
+    <t>C203078</t>
+  </si>
+  <si>
+    <t>CR0402-J/-000GLFCT-ND, CR0402-J/-000GLFTR-ND</t>
   </si>
   <si>
     <t>BRE-000311</t>
@@ -3061,7 +3079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O150"/>
+  <dimension ref="A1:O151"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5754,11 +5772,11 @@
         <v>418</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <f>B1*6</f>
-        <v>30</v>
+        <f>B1*3</f>
+        <v>15</v>
       </c>
       <c r="F76" t="s">
         <v>419</v>
@@ -5767,20 +5785,20 @@
         <v>420</v>
       </c>
       <c r="H76">
-        <v>12940</v>
+        <v>4283</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K76" t="s">
         <v>421</v>
       </c>
       <c r="N76" s="13">
-        <v>0.0003</v>
+        <v>0.0035</v>
       </c>
       <c r="O76" s="13">
-        <f>N76*6</f>
-        <v>0.0018</v>
+        <f>N76*3</f>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -5794,119 +5812,119 @@
         <v>424</v>
       </c>
       <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <f>B1*6</f>
+        <v>30</v>
+      </c>
+      <c r="F77" t="s">
+        <v>425</v>
+      </c>
+      <c r="G77" t="s">
+        <v>426</v>
+      </c>
+      <c r="H77">
+        <v>12940</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>427</v>
+      </c>
+      <c r="N77" s="13">
+        <v>0.0003</v>
+      </c>
+      <c r="O77" s="13">
+        <f>N77*6</f>
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>428</v>
+      </c>
+      <c r="B78" t="s">
+        <v>429</v>
+      </c>
+      <c r="C78" t="s">
+        <v>430</v>
+      </c>
+      <c r="D78">
         <v>2</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <f>B1*2</f>
         <v>10</v>
       </c>
-      <c r="F77" t="s">
-        <v>425</v>
-      </c>
-      <c r="G77" t="s">
-        <v>426</v>
-      </c>
-      <c r="H77">
+      <c r="F78" t="s">
+        <v>431</v>
+      </c>
+      <c r="G78" t="s">
+        <v>432</v>
+      </c>
+      <c r="H78">
         <v>9475</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="K77" t="s">
-        <v>427</v>
-      </c>
-      <c r="L77" t="s">
-        <v>428</v>
-      </c>
-      <c r="N77" s="13">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>433</v>
+      </c>
+      <c r="L78" t="s">
+        <v>434</v>
+      </c>
+      <c r="N78" s="13">
         <v>0.0004</v>
       </c>
-      <c r="O77" s="13">
-        <f>N77*2</f>
+      <c r="O78" s="13">
+        <f>N78*2</f>
         <v>0.0008</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
-        <v>429</v>
-      </c>
-      <c r="B78" t="s">
-        <v>430</v>
-      </c>
-      <c r="C78" t="s">
-        <v>431</v>
-      </c>
-      <c r="D78">
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>435</v>
+      </c>
+      <c r="B79" t="s">
+        <v>436</v>
+      </c>
+      <c r="C79" t="s">
+        <v>437</v>
+      </c>
+      <c r="D79">
         <v>7</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <f>B1*7</f>
         <v>35</v>
       </c>
-      <c r="F78" t="s">
-        <v>432</v>
-      </c>
-      <c r="G78" t="s">
-        <v>433</v>
-      </c>
-      <c r="H78">
+      <c r="F79" t="s">
+        <v>438</v>
+      </c>
+      <c r="G79" t="s">
+        <v>439</v>
+      </c>
+      <c r="H79">
         <v>6431</v>
       </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="K78" t="s">
-        <v>434</v>
-      </c>
-      <c r="L78" t="s">
-        <v>435</v>
-      </c>
-      <c r="N78" s="13">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>440</v>
+      </c>
+      <c r="L79" t="s">
+        <v>441</v>
+      </c>
+      <c r="N79" s="13">
         <v>0.0004</v>
       </c>
-      <c r="O78" s="13">
-        <f>N78*7</f>
+      <c r="O79" s="13">
+        <f>N79*7</f>
         <v>0.0028</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
-        <v>436</v>
-      </c>
-      <c r="B79" t="s">
-        <v>437</v>
-      </c>
-      <c r="C79" t="s">
-        <v>438</v>
-      </c>
-      <c r="D79">
-        <v>8</v>
-      </c>
-      <c r="E79">
-        <f>B1*8</f>
-        <v>40</v>
-      </c>
-      <c r="F79" t="s">
-        <v>439</v>
-      </c>
-      <c r="G79" t="s">
-        <v>440</v>
-      </c>
-      <c r="H79">
-        <v>9500</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="K79" t="s">
-        <v>441</v>
-      </c>
-      <c r="N79" s="13">
-        <v>0.0003</v>
-      </c>
-      <c r="O79" s="13">
-        <f>N79*8</f>
-        <v>0.0024</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5920,11 +5938,11 @@
         <v>444</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <f>B1*1</f>
-        <v>5</v>
+        <f>B1*8</f>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
         <v>445</v>
@@ -5933,7 +5951,7 @@
         <v>446</v>
       </c>
       <c r="H80">
-        <v>9830</v>
+        <v>9500</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5942,11 +5960,11 @@
         <v>447</v>
       </c>
       <c r="N80" s="13">
-        <v>0.0007</v>
+        <v>0.0003</v>
       </c>
       <c r="O80" s="13">
-        <f>N80*1</f>
-        <v>0.0007</v>
+        <f>N80*8</f>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5960,162 +5978,162 @@
         <v>450</v>
       </c>
       <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <f>B1*1</f>
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>451</v>
+      </c>
+      <c r="G81" t="s">
+        <v>452</v>
+      </c>
+      <c r="H81">
+        <v>9830</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>453</v>
+      </c>
+      <c r="N81" s="13">
+        <v>0.0007</v>
+      </c>
+      <c r="O81" s="13">
+        <f>N81*1</f>
+        <v>0.0007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>454</v>
+      </c>
+      <c r="B82" t="s">
+        <v>455</v>
+      </c>
+      <c r="C82" t="s">
+        <v>456</v>
+      </c>
+      <c r="D82">
         <v>2</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <f>B1*2</f>
         <v>10</v>
       </c>
-      <c r="F81" t="s">
-        <v>451</v>
-      </c>
-      <c r="G81" t="s">
-        <v>452</v>
-      </c>
-      <c r="H81">
+      <c r="F82" t="s">
+        <v>457</v>
+      </c>
+      <c r="G82" t="s">
+        <v>458</v>
+      </c>
+      <c r="H82">
         <v>9358</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>453</v>
-      </c>
-      <c r="L81" t="s">
-        <v>454</v>
-      </c>
-      <c r="N81" s="13">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>459</v>
+      </c>
+      <c r="L82" t="s">
+        <v>460</v>
+      </c>
+      <c r="N82" s="13">
         <v>0.0004</v>
       </c>
-      <c r="O81" s="13">
-        <f>N81*2</f>
+      <c r="O82" s="13">
+        <f>N82*2</f>
         <v>0.0008</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
-      <c r="A82" t="s">
-        <v>455</v>
-      </c>
-      <c r="B82" t="s">
-        <v>456</v>
-      </c>
-      <c r="C82" t="s">
-        <v>457</v>
-      </c>
-      <c r="D82">
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>461</v>
+      </c>
+      <c r="B83" t="s">
+        <v>462</v>
+      </c>
+      <c r="C83" t="s">
+        <v>463</v>
+      </c>
+      <c r="D83">
         <v>7</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <f>B1*7</f>
         <v>35</v>
       </c>
-      <c r="F82" t="s">
-        <v>458</v>
-      </c>
-      <c r="G82" t="s">
-        <v>459</v>
-      </c>
-      <c r="H82">
+      <c r="F83" t="s">
+        <v>464</v>
+      </c>
+      <c r="G83" t="s">
+        <v>465</v>
+      </c>
+      <c r="H83">
         <v>800</v>
       </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="K82" t="s">
-        <v>460</v>
-      </c>
-      <c r="L82" t="s">
-        <v>461</v>
-      </c>
-      <c r="N82" s="13">
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>466</v>
+      </c>
+      <c r="L83" t="s">
+        <v>467</v>
+      </c>
+      <c r="N83" s="13">
         <v>0.0005999999999999999</v>
       </c>
-      <c r="O82" s="13">
-        <f>N82*7</f>
+      <c r="O83" s="13">
+        <f>N83*7</f>
         <v>0.0042</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
-      <c r="A83" t="s">
-        <v>462</v>
-      </c>
-      <c r="B83" t="s">
-        <v>463</v>
-      </c>
-      <c r="C83" t="s">
-        <v>464</v>
-      </c>
-      <c r="D83">
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>468</v>
+      </c>
+      <c r="B84" t="s">
+        <v>469</v>
+      </c>
+      <c r="C84" t="s">
+        <v>470</v>
+      </c>
+      <c r="D84">
         <v>1</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <f>B1*1</f>
         <v>5</v>
       </c>
-      <c r="F83" t="s">
-        <v>465</v>
-      </c>
-      <c r="G83" t="s">
-        <v>466</v>
-      </c>
-      <c r="H83">
+      <c r="F84" t="s">
+        <v>471</v>
+      </c>
+      <c r="G84" t="s">
+        <v>472</v>
+      </c>
+      <c r="H84">
         <v>9825</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="K83" t="s">
-        <v>467</v>
-      </c>
-      <c r="L83" t="s">
-        <v>468</v>
-      </c>
-      <c r="N83" s="13">
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>473</v>
+      </c>
+      <c r="L84" t="s">
+        <v>474</v>
+      </c>
+      <c r="N84" s="13">
         <v>0.0009</v>
       </c>
-      <c r="O83" s="13">
-        <f>N83*1</f>
+      <c r="O84" s="13">
+        <f>N84*1</f>
         <v>0.0009</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" t="s">
-        <v>469</v>
-      </c>
-      <c r="B84" t="s">
-        <v>470</v>
-      </c>
-      <c r="C84" t="s">
-        <v>471</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84">
-        <f>B1*5</f>
-        <v>25</v>
-      </c>
-      <c r="F84" t="s">
-        <v>472</v>
-      </c>
-      <c r="G84" t="s">
-        <v>473</v>
-      </c>
-      <c r="H84">
-        <v>6710</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="K84" t="s">
-        <v>474</v>
-      </c>
-      <c r="N84" s="13">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="O84" s="13">
-        <f>N84*5</f>
-        <v>0.0029999999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -6129,70 +6147,70 @@
         <v>477</v>
       </c>
       <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <f>B1*5</f>
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>478</v>
+      </c>
+      <c r="G85" t="s">
+        <v>479</v>
+      </c>
+      <c r="H85">
+        <v>6710</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>480</v>
+      </c>
+      <c r="N85" s="13">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="O85" s="13">
+        <f>N85*5</f>
+        <v>0.0029999999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>481</v>
+      </c>
+      <c r="B86" t="s">
+        <v>482</v>
+      </c>
+      <c r="C86" t="s">
+        <v>483</v>
+      </c>
+      <c r="D86">
         <v>3</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <f>B1*3</f>
         <v>15</v>
       </c>
-      <c r="F85" t="s">
-        <v>478</v>
-      </c>
-      <c r="G85" t="s">
-        <v>479</v>
-      </c>
-      <c r="H85">
+      <c r="F86" t="s">
+        <v>484</v>
+      </c>
+      <c r="G86" t="s">
+        <v>485</v>
+      </c>
+      <c r="H86">
         <v>3482</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="N85" s="13">
-        <v>0.0004</v>
-      </c>
-      <c r="O85" s="13">
-        <f>N85*3</f>
-        <v>0.0012000000000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" t="s">
-        <v>480</v>
-      </c>
-      <c r="B86" t="s">
-        <v>481</v>
-      </c>
-      <c r="C86" t="s">
-        <v>482</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86">
-        <f>B1*2</f>
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
-        <v>483</v>
-      </c>
-      <c r="G86" t="s">
-        <v>484</v>
-      </c>
-      <c r="H86">
-        <v>2196</v>
-      </c>
       <c r="I86">
         <v>0</v>
-      </c>
-      <c r="K86" t="s">
-        <v>485</v>
       </c>
       <c r="N86" s="13">
         <v>0.0004</v>
       </c>
       <c r="O86" s="13">
-        <f>N86*2</f>
-        <v>0.0008</v>
+        <f>N86*3</f>
+        <v>0.0012000000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -6206,11 +6224,11 @@
         <v>488</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87">
-        <f>B1*4</f>
-        <v>20</v>
+        <f>B1*2</f>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
         <v>489</v>
@@ -6219,7 +6237,7 @@
         <v>490</v>
       </c>
       <c r="H87">
-        <v>40796</v>
+        <v>2196</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -6231,8 +6249,8 @@
         <v>0.0004</v>
       </c>
       <c r="O87" s="13">
-        <f>N87*4</f>
-        <v>0.0016</v>
+        <f>N87*2</f>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -6246,11 +6264,11 @@
         <v>494</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <f>B1*3</f>
-        <v>15</v>
+        <f>B1*4</f>
+        <v>20</v>
       </c>
       <c r="F88" t="s">
         <v>495</v>
@@ -6259,28 +6277,31 @@
         <v>496</v>
       </c>
       <c r="H88">
-        <v>79</v>
+        <v>40796</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
+      <c r="K88" t="s">
+        <v>497</v>
+      </c>
       <c r="N88" s="13">
-        <v>0.3424</v>
+        <v>0.0004</v>
       </c>
       <c r="O88" s="13">
-        <f>N88*3</f>
-        <v>1.0272</v>
+        <f>N88*4</f>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B89" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C89" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -6290,26 +6311,23 @@
         <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G89" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H89">
-        <v>9693</v>
+        <v>79</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="K89" t="s">
-        <v>502</v>
-      </c>
       <c r="N89" s="13">
-        <v>0.0004</v>
+        <v>0.3424</v>
       </c>
       <c r="O89" s="13">
         <f>N89*3</f>
-        <v>0.0012000000000000001</v>
+        <v>1.0272</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -6323,70 +6341,70 @@
         <v>505</v>
       </c>
       <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <f>B1*3</f>
+        <v>15</v>
+      </c>
+      <c r="F90" t="s">
+        <v>506</v>
+      </c>
+      <c r="G90" t="s">
+        <v>507</v>
+      </c>
+      <c r="H90">
+        <v>9693</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>508</v>
+      </c>
+      <c r="N90" s="13">
+        <v>0.0004</v>
+      </c>
+      <c r="O90" s="13">
+        <f>N90*3</f>
+        <v>0.0012000000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>509</v>
+      </c>
+      <c r="B91" t="s">
+        <v>510</v>
+      </c>
+      <c r="C91" t="s">
+        <v>511</v>
+      </c>
+      <c r="D91">
         <v>1</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <f>B1*1</f>
         <v>5</v>
       </c>
-      <c r="F90" t="s">
-        <v>506</v>
-      </c>
-      <c r="G90" t="s">
-        <v>507</v>
-      </c>
-      <c r="H90">
+      <c r="F91" t="s">
+        <v>512</v>
+      </c>
+      <c r="G91" t="s">
+        <v>513</v>
+      </c>
+      <c r="H91">
         <v>4735</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="N90" s="13">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="N91" s="13">
         <v>0.0004</v>
       </c>
-      <c r="O90" s="13">
-        <f>N90*1</f>
+      <c r="O91" s="13">
+        <f>N91*1</f>
         <v>0.0004</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" t="s">
-        <v>508</v>
-      </c>
-      <c r="B91" t="s">
-        <v>509</v>
-      </c>
-      <c r="C91" t="s">
-        <v>510</v>
-      </c>
-      <c r="D91">
-        <v>6</v>
-      </c>
-      <c r="E91">
-        <f>B1*6</f>
-        <v>30</v>
-      </c>
-      <c r="F91" t="s">
-        <v>511</v>
-      </c>
-      <c r="G91" t="s">
-        <v>512</v>
-      </c>
-      <c r="H91">
-        <v>9530</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="K91" t="s">
-        <v>513</v>
-      </c>
-      <c r="N91" s="13">
-        <v>0.0003</v>
-      </c>
-      <c r="O91" s="13">
-        <f>N91*6</f>
-        <v>0.0018</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -6400,11 +6418,11 @@
         <v>516</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <f>B1*1</f>
-        <v>5</v>
+        <f>B1*6</f>
+        <v>30</v>
       </c>
       <c r="F92" t="s">
         <v>517</v>
@@ -6413,7 +6431,7 @@
         <v>518</v>
       </c>
       <c r="H92">
-        <v>1000</v>
+        <v>9530</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6421,26 +6439,23 @@
       <c r="K92" t="s">
         <v>519</v>
       </c>
-      <c r="L92" t="s">
-        <v>520</v>
-      </c>
       <c r="N92" s="13">
         <v>0.0003</v>
       </c>
       <c r="O92" s="13">
-        <f>N92*1</f>
-        <v>0.0003</v>
+        <f>N92*6</f>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
+        <v>520</v>
+      </c>
+      <c r="B93" t="s">
         <v>521</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>522</v>
-      </c>
-      <c r="C93" t="s">
-        <v>523</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -6450,26 +6465,29 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
+        <v>523</v>
+      </c>
+      <c r="G93" t="s">
         <v>524</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93">
+        <v>1000</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
         <v>525</v>
       </c>
-      <c r="H93">
-        <v>9980</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>526</v>
       </c>
       <c r="N93" s="13">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="O93" s="13">
         <f>N93*1</f>
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -6496,7 +6514,7 @@
         <v>531</v>
       </c>
       <c r="H94">
-        <v>2685</v>
+        <v>9980</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6504,26 +6522,23 @@
       <c r="K94" t="s">
         <v>532</v>
       </c>
-      <c r="L94" t="s">
-        <v>533</v>
-      </c>
       <c r="N94" s="13">
-        <v>0.0005999999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="O94" s="13">
         <f>N94*1</f>
-        <v>0.0006</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
+        <v>533</v>
+      </c>
+      <c r="B95" t="s">
         <v>534</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>535</v>
-      </c>
-      <c r="C95" t="s">
-        <v>536</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -6533,26 +6548,29 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
+        <v>536</v>
+      </c>
+      <c r="G95" t="s">
         <v>537</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95">
+        <v>2685</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
         <v>538</v>
       </c>
-      <c r="H95">
-        <v>9638</v>
-      </c>
-      <c r="I95">
-        <v>5</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>539</v>
       </c>
       <c r="N95" s="13">
-        <v>0.0003</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="O95" s="13">
         <f>N95*1</f>
-        <v>0.0003</v>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -6566,11 +6584,11 @@
         <v>542</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <f>B1*2</f>
-        <v>10</v>
+        <f>B1*1</f>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
         <v>543</v>
@@ -6579,34 +6597,31 @@
         <v>544</v>
       </c>
       <c r="H96">
-        <v>10000</v>
+        <v>9638</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K96" t="s">
         <v>545</v>
       </c>
-      <c r="L96" t="s">
-        <v>546</v>
-      </c>
       <c r="N96" s="13">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="O96" s="13">
-        <f>N96*2</f>
-        <v>0.0008</v>
+        <f>N96*1</f>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
+        <v>546</v>
+      </c>
+      <c r="B97" t="s">
         <v>547</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>548</v>
-      </c>
-      <c r="C97" t="s">
-        <v>549</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -6616,18 +6631,21 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
+        <v>549</v>
+      </c>
+      <c r="G97" t="s">
         <v>550</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97">
+        <v>10000</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
         <v>551</v>
       </c>
-      <c r="H97">
-        <v>7131</v>
-      </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>552</v>
       </c>
       <c r="N97" s="13">
@@ -6662,7 +6680,7 @@
         <v>557</v>
       </c>
       <c r="H98">
-        <v>870</v>
+        <v>7131</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -6670,55 +6688,55 @@
       <c r="K98" t="s">
         <v>558</v>
       </c>
-      <c r="L98" t="s">
-        <v>559</v>
-      </c>
       <c r="N98" s="13">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="O98" s="13">
         <f>N98*2</f>
-        <v>0.0006</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
+        <v>559</v>
+      </c>
+      <c r="B99" t="s">
         <v>560</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>561</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <f>B1*2</f>
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
         <v>562</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <f>B1*1</f>
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>563</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99">
+        <v>870</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="K99" t="s">
         <v>564</v>
       </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>120</v>
-      </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>565</v>
       </c>
       <c r="N99" s="13">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="O99" s="13">
-        <f>N99*1</f>
-        <v>0.0004</v>
+        <f>N99*2</f>
+        <v>0.0006</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -6745,16 +6763,13 @@
         <v>570</v>
       </c>
       <c r="H100">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K100" t="s">
         <v>571</v>
-      </c>
-      <c r="L100" t="s">
-        <v>572</v>
       </c>
       <c r="N100" s="13">
         <v>0.0004</v>
@@ -6766,13 +6781,13 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
+        <v>572</v>
+      </c>
+      <c r="B101" t="s">
         <v>573</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>574</v>
-      </c>
-      <c r="C101" t="s">
-        <v>575</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -6782,26 +6797,29 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
+        <v>575</v>
+      </c>
+      <c r="G101" t="s">
         <v>576</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101">
+        <v>10000</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
         <v>577</v>
       </c>
-      <c r="H101">
-        <v>9572</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>578</v>
       </c>
       <c r="N101" s="13">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="O101" s="13">
         <f>N101*1</f>
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -6815,11 +6833,11 @@
         <v>581</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E102">
-        <f>B1*4</f>
-        <v>20</v>
+        <f>B1*1</f>
+        <v>5</v>
       </c>
       <c r="F102" t="s">
         <v>582</v>
@@ -6828,28 +6846,31 @@
         <v>583</v>
       </c>
       <c r="H102">
-        <v>10000</v>
+        <v>9572</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
+      <c r="K102" t="s">
+        <v>584</v>
+      </c>
       <c r="N102" s="13">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="O102" s="13">
-        <f>N102*4</f>
-        <v>0.0016</v>
+        <f>N102*1</f>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B103" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C103" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D103">
         <v>4</v>
@@ -6859,13 +6880,13 @@
         <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="G103" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H103">
-        <v>22742</v>
+        <v>10000</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -6880,42 +6901,39 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B104" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C104" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <f>B1*1</f>
-        <v>5</v>
+        <f>B1*4</f>
+        <v>20</v>
       </c>
       <c r="F104" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G104" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H104">
-        <v>8668</v>
+        <v>22742</v>
       </c>
       <c r="I104">
         <v>0</v>
-      </c>
-      <c r="K104" t="s">
-        <v>594</v>
       </c>
       <c r="N104" s="13">
         <v>0.0004</v>
       </c>
       <c r="O104" s="13">
-        <f>N104*1</f>
-        <v>0.0004</v>
+        <f>N104*4</f>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -6942,108 +6960,105 @@
         <v>599</v>
       </c>
       <c r="H105">
-        <v>100</v>
+        <v>8668</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
+      <c r="K105" t="s">
+        <v>600</v>
+      </c>
       <c r="N105" s="13">
-        <v>0.0483</v>
+        <v>0.0004</v>
       </c>
       <c r="O105" s="13">
         <f>N105*1</f>
-        <v>0.0483</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B106" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C106" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <f>B1*1</f>
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>604</v>
+      </c>
+      <c r="G106" t="s">
+        <v>605</v>
+      </c>
+      <c r="H106">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="N106" s="13">
+        <v>0.0483</v>
+      </c>
+      <c r="O106" s="13">
+        <f>N106*1</f>
+        <v>0.0483</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
+        <v>606</v>
+      </c>
+      <c r="B107" t="s">
+        <v>607</v>
+      </c>
+      <c r="C107" t="s">
+        <v>608</v>
+      </c>
+      <c r="D107">
         <v>2</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <f>B1*2</f>
         <v>10</v>
       </c>
-      <c r="F106" t="s">
-        <v>603</v>
-      </c>
-      <c r="G106" t="s">
-        <v>604</v>
-      </c>
-      <c r="H106">
+      <c r="F107" t="s">
+        <v>609</v>
+      </c>
+      <c r="G107" t="s">
+        <v>610</v>
+      </c>
+      <c r="H107">
         <v>1208</v>
       </c>
-      <c r="I106">
-        <v>0</v>
-      </c>
-      <c r="N106" s="13">
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="N107" s="13">
         <v>0.0041</v>
       </c>
-      <c r="O106" s="13">
-        <f>N106*2</f>
+      <c r="O107" s="13">
+        <f>N107*2</f>
         <v>0.0082</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="A107" t="s">
-        <v>605</v>
-      </c>
-      <c r="B107" t="s">
-        <v>606</v>
-      </c>
-      <c r="C107" t="s">
-        <v>607</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
-        <f>B1*1</f>
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>608</v>
-      </c>
-      <c r="G107" t="s">
-        <v>609</v>
-      </c>
-      <c r="H107">
-        <v>466</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="K107" t="s">
-        <v>610</v>
-      </c>
-      <c r="L107" t="s">
-        <v>611</v>
-      </c>
-      <c r="N107" s="13">
-        <v>0.013</v>
-      </c>
-      <c r="O107" s="13">
-        <f>N107*1</f>
-        <v>0.013</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" t="s">
+        <v>611</v>
+      </c>
+      <c r="B108" t="s">
         <v>612</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>613</v>
-      </c>
-      <c r="C108" t="s">
-        <v>614</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -7053,26 +7068,29 @@
         <v>5</v>
       </c>
       <c r="F108" t="s">
+        <v>614</v>
+      </c>
+      <c r="G108" t="s">
         <v>615</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108">
+        <v>466</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
         <v>616</v>
       </c>
-      <c r="H108">
-        <v>9830</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>617</v>
       </c>
       <c r="N108" s="13">
-        <v>0.0004</v>
+        <v>0.013</v>
       </c>
       <c r="O108" s="13">
         <f>N108*1</f>
-        <v>0.0004</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -7099,7 +7117,7 @@
         <v>622</v>
       </c>
       <c r="H109">
-        <v>870</v>
+        <v>9830</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -7107,26 +7125,23 @@
       <c r="K109" t="s">
         <v>623</v>
       </c>
-      <c r="L109" t="s">
-        <v>624</v>
-      </c>
       <c r="N109" s="13">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="O109" s="13">
         <f>N109*1</f>
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" t="s">
+        <v>624</v>
+      </c>
+      <c r="B110" t="s">
         <v>625</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>626</v>
-      </c>
-      <c r="C110" t="s">
-        <v>627</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -7136,40 +7151,40 @@
         <v>5</v>
       </c>
       <c r="F110" t="s">
+        <v>627</v>
+      </c>
+      <c r="G110" t="s">
         <v>628</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110">
+        <v>870</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
         <v>629</v>
       </c>
-      <c r="H110">
-        <v>9424</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>630</v>
       </c>
-      <c r="L110" t="s">
-        <v>631</v>
-      </c>
       <c r="N110" s="13">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="O110" s="13">
         <f>N110*1</f>
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" t="s">
+        <v>631</v>
+      </c>
+      <c r="B111" t="s">
         <v>632</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>633</v>
-      </c>
-      <c r="C111" t="s">
-        <v>634</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -7179,18 +7194,21 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
+        <v>634</v>
+      </c>
+      <c r="G111" t="s">
         <v>635</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111">
+        <v>9424</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
         <v>636</v>
       </c>
-      <c r="H111">
-        <v>9930</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>637</v>
       </c>
       <c r="N111" s="13">
@@ -7225,7 +7243,7 @@
         <v>642</v>
       </c>
       <c r="H112">
-        <v>20860</v>
+        <v>9930</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -7265,7 +7283,7 @@
         <v>648</v>
       </c>
       <c r="H113">
-        <v>100</v>
+        <v>20860</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -7273,26 +7291,23 @@
       <c r="K113" t="s">
         <v>649</v>
       </c>
-      <c r="L113" t="s">
-        <v>650</v>
-      </c>
       <c r="N113" s="13">
-        <v>0.0669</v>
+        <v>0.0004</v>
       </c>
       <c r="O113" s="13">
         <f>N113*1</f>
-        <v>0.0669</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" t="s">
+        <v>650</v>
+      </c>
+      <c r="B114" t="s">
         <v>651</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>652</v>
-      </c>
-      <c r="C114" t="s">
-        <v>653</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -7302,26 +7317,29 @@
         <v>5</v>
       </c>
       <c r="F114" t="s">
+        <v>653</v>
+      </c>
+      <c r="G114" t="s">
         <v>654</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114">
+        <v>100</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
         <v>655</v>
       </c>
-      <c r="H114">
-        <v>9830</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>656</v>
       </c>
       <c r="N114" s="13">
-        <v>0.0004</v>
+        <v>0.0669</v>
       </c>
       <c r="O114" s="13">
         <f>N114*1</f>
-        <v>0.0004</v>
+        <v>0.0669</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -7348,28 +7366,31 @@
         <v>661</v>
       </c>
       <c r="H115">
-        <v>9920</v>
+        <v>9830</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
+      <c r="K115" t="s">
+        <v>662</v>
+      </c>
       <c r="N115" s="13">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="O115" s="13">
         <f>N115*1</f>
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B116" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C116" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -7379,26 +7400,23 @@
         <v>5</v>
       </c>
       <c r="F116" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G116" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H116">
-        <v>10000</v>
+        <v>9920</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
-      <c r="K116" t="s">
-        <v>667</v>
-      </c>
       <c r="N116" s="13">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="O116" s="13">
         <f>N116*1</f>
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -7433,26 +7451,23 @@
       <c r="K117" t="s">
         <v>673</v>
       </c>
-      <c r="L117" t="s">
-        <v>674</v>
-      </c>
       <c r="N117" s="13">
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
       <c r="O117" s="13">
         <f>N117*1</f>
-        <v>0.0003</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B118" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="C118" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -7462,40 +7477,40 @@
         <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G118" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I118">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="L118" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="N118" s="13">
-        <v>0.5205</v>
+        <v>0.0003</v>
       </c>
       <c r="O118" s="13">
         <f>N118*1</f>
-        <v>0.5205</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" t="s">
+        <v>687</v>
+      </c>
+      <c r="B119" t="s">
         <v>688</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>689</v>
-      </c>
-      <c r="C119" t="s">
-        <v>690</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -7505,10 +7520,10 @@
         <v>5</v>
       </c>
       <c r="F119" t="s">
+        <v>690</v>
+      </c>
+      <c r="G119" t="s">
         <v>691</v>
-      </c>
-      <c r="G119" t="s">
-        <v>692</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -7516,23 +7531,29 @@
       <c r="I119">
         <v>25</v>
       </c>
+      <c r="K119" t="s">
+        <v>692</v>
+      </c>
+      <c r="L119" t="s">
+        <v>693</v>
+      </c>
       <c r="N119" s="13">
-        <v>0</v>
+        <v>0.5205</v>
       </c>
       <c r="O119" s="13">
         <f>N119*1</f>
-        <v>0.0</v>
+        <v>0.5205</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B120" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C120" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -7542,120 +7563,114 @@
         <v>5</v>
       </c>
       <c r="F120" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G120" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H120">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="K120" t="s">
-        <v>698</v>
-      </c>
-      <c r="L120" t="s">
-        <v>699</v>
+        <v>25</v>
       </c>
       <c r="N120" s="13">
-        <v>0.0051</v>
+        <v>0</v>
       </c>
       <c r="O120" s="13">
         <f>N120*1</f>
-        <v>0.0051</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" t="s">
+        <v>699</v>
+      </c>
+      <c r="B121" t="s">
         <v>700</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>701</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <f>B1*1</f>
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
         <v>702</v>
       </c>
-      <c r="D121">
+      <c r="G121" t="s">
+        <v>703</v>
+      </c>
+      <c r="H121">
+        <v>785</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>704</v>
+      </c>
+      <c r="L121" t="s">
+        <v>705</v>
+      </c>
+      <c r="N121" s="13">
+        <v>0.0051</v>
+      </c>
+      <c r="O121" s="13">
+        <f>N121*1</f>
+        <v>0.0051</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" t="s">
+        <v>706</v>
+      </c>
+      <c r="B122" t="s">
+        <v>707</v>
+      </c>
+      <c r="C122" t="s">
+        <v>708</v>
+      </c>
+      <c r="D122">
         <v>26</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <f>B1*26</f>
         <v>130</v>
       </c>
-      <c r="F121" t="s">
-        <v>703</v>
-      </c>
-      <c r="G121" t="s">
-        <v>704</v>
-      </c>
-      <c r="H121">
+      <c r="F122" t="s">
+        <v>709</v>
+      </c>
+      <c r="G122" t="s">
+        <v>710</v>
+      </c>
+      <c r="H122">
         <v>1036</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="N121" s="13">
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="N122" s="13">
         <v>0.0401</v>
       </c>
-      <c r="O121" s="13">
-        <f>N121*26</f>
+      <c r="O122" s="13">
+        <f>N122*26</f>
         <v>1.0426</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" t="s">
-        <v>705</v>
-      </c>
-      <c r="B122" t="s">
-        <v>706</v>
-      </c>
-      <c r="C122" t="s">
-        <v>707</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
-        <f>B1*1</f>
-        <v>5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>708</v>
-      </c>
-      <c r="G122" t="s">
-        <v>709</v>
-      </c>
-      <c r="H122">
-        <v>210</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="K122" t="s">
-        <v>710</v>
-      </c>
-      <c r="L122" t="s">
-        <v>711</v>
-      </c>
-      <c r="N122" s="13">
-        <v>0.3196</v>
-      </c>
-      <c r="O122" s="13">
-        <f>N122*1</f>
-        <v>0.3196</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" t="s">
+        <v>711</v>
+      </c>
+      <c r="B123" t="s">
         <v>712</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>713</v>
-      </c>
-      <c r="C123" t="s">
-        <v>714</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -7665,40 +7680,40 @@
         <v>5</v>
       </c>
       <c r="F123" t="s">
+        <v>714</v>
+      </c>
+      <c r="G123" t="s">
         <v>715</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123">
+        <v>210</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
         <v>716</v>
       </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>5537</v>
-      </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>717</v>
       </c>
-      <c r="L123" t="s">
-        <v>718</v>
-      </c>
       <c r="N123" s="13">
-        <v>3.97</v>
+        <v>0.3196</v>
       </c>
       <c r="O123" s="13">
         <f>N123*1</f>
-        <v>3.97</v>
+        <v>0.3196</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" t="s">
+        <v>718</v>
+      </c>
+      <c r="B124" t="s">
         <v>719</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>720</v>
-      </c>
-      <c r="C124" t="s">
-        <v>721</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -7708,26 +7723,29 @@
         <v>5</v>
       </c>
       <c r="F124" t="s">
+        <v>721</v>
+      </c>
+      <c r="G124" t="s">
         <v>722</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>5537</v>
+      </c>
+      <c r="K124" t="s">
         <v>723</v>
       </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>60</v>
-      </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>724</v>
       </c>
       <c r="N124" s="13">
-        <v>4.264</v>
+        <v>3.97</v>
       </c>
       <c r="O124" s="13">
         <f>N124*1</f>
-        <v>4.264</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -7754,28 +7772,31 @@
         <v>729</v>
       </c>
       <c r="H125">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K125" t="s">
+        <v>730</v>
       </c>
       <c r="N125" s="13">
-        <v>0.6316000000000001</v>
+        <v>4.264</v>
       </c>
       <c r="O125" s="13">
         <f>N125*1</f>
-        <v>0.6316</v>
+        <v>4.264</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B126" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C126" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -7785,34 +7806,34 @@
         <v>5</v>
       </c>
       <c r="F126" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G126" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="N126" s="13">
-        <v>6.3624</v>
+        <v>0.6316000000000001</v>
       </c>
       <c r="O126" s="13">
         <f>N126*1</f>
-        <v>6.3624</v>
+        <v>0.6316</v>
       </c>
     </row>
     <row r="127" spans="1:15">
       <c r="A127" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B127" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C127" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -7822,120 +7843,114 @@
         <v>5</v>
       </c>
       <c r="F127" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G127" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H127">
-        <v>1120</v>
+        <v>10</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="N127" s="13">
-        <v>0.1248</v>
+        <v>6.3624</v>
       </c>
       <c r="O127" s="13">
         <f>N127*1</f>
-        <v>0.1248</v>
+        <v>6.3624</v>
       </c>
     </row>
     <row r="128" spans="1:15">
       <c r="A128" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B128" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C128" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <f>B1*1</f>
+        <v>5</v>
+      </c>
+      <c r="F128" t="s">
+        <v>744</v>
+      </c>
+      <c r="G128" t="s">
+        <v>745</v>
+      </c>
+      <c r="H128">
+        <v>1120</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="N128" s="13">
+        <v>0.1248</v>
+      </c>
+      <c r="O128" s="13">
+        <f>N128*1</f>
+        <v>0.1248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" t="s">
+        <v>746</v>
+      </c>
+      <c r="B129" t="s">
+        <v>747</v>
+      </c>
+      <c r="C129" t="s">
+        <v>748</v>
+      </c>
+      <c r="D129">
         <v>3</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <f>B1*3</f>
         <v>15</v>
       </c>
-      <c r="F128" t="s">
-        <v>743</v>
-      </c>
-      <c r="G128" t="s">
-        <v>744</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="K128" t="s">
-        <v>745</v>
-      </c>
-      <c r="L128" t="s">
-        <v>746</v>
-      </c>
-      <c r="N128" s="13">
-        <v>0</v>
-      </c>
-      <c r="O128" s="13">
-        <f>N128*3</f>
+      <c r="F129" t="s">
+        <v>749</v>
+      </c>
+      <c r="G129" t="s">
+        <v>750</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="K129" t="s">
+        <v>751</v>
+      </c>
+      <c r="L129" t="s">
+        <v>752</v>
+      </c>
+      <c r="N129" s="13">
+        <v>0</v>
+      </c>
+      <c r="O129" s="13">
+        <f>N129*3</f>
         <v>0.0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" t="s">
-        <v>747</v>
-      </c>
-      <c r="B129" t="s">
-        <v>748</v>
-      </c>
-      <c r="C129" t="s">
-        <v>749</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <f>B1*1</f>
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>750</v>
-      </c>
-      <c r="G129" t="s">
-        <v>751</v>
-      </c>
-      <c r="H129">
-        <v>100</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="K129" t="s">
-        <v>752</v>
-      </c>
-      <c r="L129" t="s">
-        <v>753</v>
-      </c>
-      <c r="N129" s="13">
-        <v>0.1052</v>
-      </c>
-      <c r="O129" s="13">
-        <f>N129*1</f>
-        <v>0.1052</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" t="s">
+        <v>753</v>
+      </c>
+      <c r="B130" t="s">
         <v>754</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>755</v>
-      </c>
-      <c r="C130" t="s">
-        <v>756</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -7945,10 +7960,10 @@
         <v>5</v>
       </c>
       <c r="F130" t="s">
+        <v>756</v>
+      </c>
+      <c r="G130" t="s">
         <v>757</v>
-      </c>
-      <c r="G130" t="s">
-        <v>758</v>
       </c>
       <c r="H130">
         <v>100</v>
@@ -7957,28 +7972,28 @@
         <v>0</v>
       </c>
       <c r="K130" t="s">
+        <v>758</v>
+      </c>
+      <c r="L130" t="s">
         <v>759</v>
       </c>
-      <c r="L130" t="s">
-        <v>760</v>
-      </c>
       <c r="N130" s="13">
-        <v>0.1201</v>
+        <v>0.1052</v>
       </c>
       <c r="O130" s="13">
         <f>N130*1</f>
-        <v>0.1201</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" t="s">
+        <v>760</v>
+      </c>
+      <c r="B131" t="s">
         <v>761</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>762</v>
-      </c>
-      <c r="C131" t="s">
-        <v>763</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -7988,40 +8003,40 @@
         <v>5</v>
       </c>
       <c r="F131" t="s">
+        <v>763</v>
+      </c>
+      <c r="G131" t="s">
         <v>764</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131">
+        <v>100</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
         <v>765</v>
       </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>125</v>
-      </c>
-      <c r="K131" t="s">
+      <c r="L131" t="s">
         <v>766</v>
       </c>
-      <c r="L131" t="s">
-        <v>767</v>
-      </c>
       <c r="N131" s="13">
-        <v>4.3187</v>
+        <v>0.1201</v>
       </c>
       <c r="O131" s="13">
         <f>N131*1</f>
-        <v>4.3187</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" t="s">
+        <v>767</v>
+      </c>
+      <c r="B132" t="s">
         <v>768</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>769</v>
-      </c>
-      <c r="C132" t="s">
-        <v>770</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -8031,40 +8046,40 @@
         <v>5</v>
       </c>
       <c r="F132" t="s">
+        <v>770</v>
+      </c>
+      <c r="G132" t="s">
         <v>771</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>125</v>
+      </c>
+      <c r="K132" t="s">
         <v>772</v>
       </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>15</v>
-      </c>
-      <c r="K132" t="s">
+      <c r="L132" t="s">
         <v>773</v>
       </c>
-      <c r="L132" t="s">
-        <v>774</v>
-      </c>
       <c r="N132" s="13">
-        <v>3.6096</v>
+        <v>4.3187</v>
       </c>
       <c r="O132" s="13">
         <f>N132*1</f>
-        <v>3.6096</v>
+        <v>4.3187</v>
       </c>
     </row>
     <row r="133" spans="1:15">
       <c r="A133" t="s">
+        <v>774</v>
+      </c>
+      <c r="B133" t="s">
         <v>775</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>776</v>
-      </c>
-      <c r="C133" t="s">
-        <v>777</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -8074,34 +8089,40 @@
         <v>5</v>
       </c>
       <c r="F133" t="s">
+        <v>777</v>
+      </c>
+      <c r="G133" t="s">
         <v>778</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>15</v>
+      </c>
+      <c r="K133" t="s">
         <v>779</v>
       </c>
-      <c r="H133">
-        <v>200</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
+      <c r="L133" t="s">
+        <v>780</v>
       </c>
       <c r="N133" s="13">
-        <v>0.0483</v>
+        <v>3.6096</v>
       </c>
       <c r="O133" s="13">
         <f>N133*1</f>
-        <v>0.0483</v>
+        <v>3.6096</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B134" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C134" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -8111,40 +8132,34 @@
         <v>5</v>
       </c>
       <c r="F134" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G134" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I134">
-        <v>10</v>
-      </c>
-      <c r="K134" t="s">
-        <v>785</v>
-      </c>
-      <c r="M134" t="s">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="N134" s="13">
-        <v>17.5518</v>
+        <v>0.0483</v>
       </c>
       <c r="O134" s="13">
         <f>N134*1</f>
-        <v>17.5518</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" t="s">
+        <v>786</v>
+      </c>
+      <c r="B135" t="s">
         <v>787</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>788</v>
-      </c>
-      <c r="C135" t="s">
-        <v>789</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -8154,34 +8169,40 @@
         <v>5</v>
       </c>
       <c r="F135" t="s">
+        <v>789</v>
+      </c>
+      <c r="G135" t="s">
         <v>790</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>10</v>
+      </c>
+      <c r="K135" t="s">
         <v>791</v>
       </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
+      <c r="M135" t="s">
+        <v>792</v>
       </c>
       <c r="N135" s="13">
-        <v>0</v>
+        <v>17.5518</v>
       </c>
       <c r="O135" s="13">
         <f>N135*1</f>
-        <v>0.0</v>
+        <v>17.5518</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B136" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C136" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -8191,40 +8212,34 @@
         <v>5</v>
       </c>
       <c r="F136" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G136" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H136">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
-      <c r="K136" t="s">
-        <v>797</v>
-      </c>
-      <c r="L136" t="s">
-        <v>798</v>
-      </c>
       <c r="N136" s="13">
-        <v>0.0326</v>
+        <v>0</v>
       </c>
       <c r="O136" s="13">
         <f>N136*1</f>
-        <v>0.0326</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" t="s">
+        <v>798</v>
+      </c>
+      <c r="B137" t="s">
         <v>799</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>800</v>
-      </c>
-      <c r="C137" t="s">
-        <v>801</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -8234,40 +8249,40 @@
         <v>5</v>
       </c>
       <c r="F137" t="s">
+        <v>801</v>
+      </c>
+      <c r="G137" t="s">
         <v>802</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137">
+        <v>552</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
         <v>803</v>
       </c>
-      <c r="H137">
-        <v>200</v>
-      </c>
-      <c r="I137">
-        <v>2005</v>
-      </c>
-      <c r="K137" t="s">
+      <c r="L137" t="s">
         <v>804</v>
       </c>
-      <c r="L137" t="s">
-        <v>805</v>
-      </c>
       <c r="N137" s="13">
-        <v>1.55</v>
+        <v>0.0326</v>
       </c>
       <c r="O137" s="13">
         <f>N137*1</f>
-        <v>1.55</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" t="s">
+        <v>805</v>
+      </c>
+      <c r="B138" t="s">
         <v>806</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>807</v>
-      </c>
-      <c r="C138" t="s">
-        <v>808</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -8277,40 +8292,40 @@
         <v>5</v>
       </c>
       <c r="F138" t="s">
+        <v>808</v>
+      </c>
+      <c r="G138" t="s">
         <v>809</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138">
+        <v>200</v>
+      </c>
+      <c r="I138">
+        <v>2005</v>
+      </c>
+      <c r="K138" t="s">
         <v>810</v>
       </c>
-      <c r="H138">
-        <v>50</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="K138" t="s">
+      <c r="L138" t="s">
         <v>811</v>
       </c>
-      <c r="L138" t="s">
-        <v>812</v>
-      </c>
       <c r="N138" s="13">
-        <v>0.1948</v>
+        <v>1.55</v>
       </c>
       <c r="O138" s="13">
         <f>N138*1</f>
-        <v>0.1948</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" t="s">
+        <v>812</v>
+      </c>
+      <c r="B139" t="s">
         <v>813</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>814</v>
-      </c>
-      <c r="C139" t="s">
-        <v>815</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -8320,63 +8335,66 @@
         <v>5</v>
       </c>
       <c r="F139" t="s">
+        <v>815</v>
+      </c>
+      <c r="G139" t="s">
         <v>816</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139">
+        <v>50</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="K139" t="s">
         <v>817</v>
       </c>
-      <c r="H139">
-        <v>1081</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
+      <c r="L139" t="s">
+        <v>818</v>
       </c>
       <c r="N139" s="13">
-        <v>0.01</v>
+        <v>0.1948</v>
       </c>
       <c r="O139" s="13">
         <f>N139*1</f>
-        <v>0.01</v>
+        <v>0.1948</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B140" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C140" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <f>B1*2</f>
-        <v>10</v>
+        <f>B1*1</f>
+        <v>5</v>
       </c>
       <c r="F140" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G140" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1081</v>
       </c>
       <c r="I140">
-        <v>30</v>
-      </c>
-      <c r="K140" t="s">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="N140" s="13">
-        <v>2.5611</v>
+        <v>0.01</v>
       </c>
       <c r="O140" s="13">
-        <f>N140*2</f>
-        <v>5.1222</v>
+        <f>N140*1</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -8390,11 +8408,11 @@
         <v>826</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
-        <f>B1*1</f>
-        <v>5</v>
+        <f>B1*2</f>
+        <v>10</v>
       </c>
       <c r="F141" t="s">
         <v>827</v>
@@ -8403,34 +8421,31 @@
         <v>828</v>
       </c>
       <c r="H141">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K141" t="s">
         <v>829</v>
       </c>
-      <c r="L141" t="s">
-        <v>830</v>
-      </c>
       <c r="N141" s="13">
-        <v>2.6935</v>
+        <v>2.5611</v>
       </c>
       <c r="O141" s="13">
-        <f>N141*1</f>
-        <v>2.6935</v>
+        <f>N141*2</f>
+        <v>5.1222</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" t="s">
+        <v>830</v>
+      </c>
+      <c r="B142" t="s">
         <v>831</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>832</v>
-      </c>
-      <c r="C142" t="s">
-        <v>833</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -8440,165 +8455,208 @@
         <v>5</v>
       </c>
       <c r="F142" t="s">
+        <v>833</v>
+      </c>
+      <c r="G142" t="s">
         <v>834</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142">
+        <v>15</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="K142" t="s">
         <v>835</v>
       </c>
-      <c r="H142">
-        <v>3435</v>
-      </c>
-      <c r="I142">
-        <v>0</v>
+      <c r="L142" t="s">
+        <v>836</v>
       </c>
       <c r="N142" s="13">
-        <v>0.1671</v>
+        <v>2.6935</v>
       </c>
       <c r="O142" s="13">
         <f>N142*1</f>
-        <v>0.1671</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="N144" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="O144" s="13">
-        <f>SUM(O15:O142</f>
-        <v>62.3046</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N148" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O148" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H149" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I149" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J149" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K149" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L149" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M149" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N149" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O149" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" t="s">
-        <v>675</v>
-      </c>
-      <c r="B150" t="s">
-        <v>676</v>
-      </c>
-      <c r="C150" t="s">
-        <v>677</v>
-      </c>
-      <c r="D150">
+        <v>2.6935</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" t="s">
+        <v>837</v>
+      </c>
+      <c r="B143" t="s">
+        <v>838</v>
+      </c>
+      <c r="C143" t="s">
+        <v>839</v>
+      </c>
+      <c r="D143">
         <v>1</v>
       </c>
-      <c r="E150">
+      <c r="E143">
         <f>B1*1</f>
         <v>5</v>
       </c>
-      <c r="F150" t="s">
-        <v>678</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>0</v>
-      </c>
-      <c r="K150" t="s">
-        <v>679</v>
-      </c>
-      <c r="L150" t="s">
-        <v>680</v>
-      </c>
-      <c r="N150" s="13">
-        <v>0</v>
-      </c>
-      <c r="O150" s="13">
-        <f>N150*1</f>
+      <c r="F143" t="s">
+        <v>840</v>
+      </c>
+      <c r="G143" t="s">
+        <v>841</v>
+      </c>
+      <c r="H143">
+        <v>3435</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="N143" s="13">
+        <v>0.1671</v>
+      </c>
+      <c r="O143" s="13">
+        <f>N143*1</f>
+        <v>0.1671</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="N145" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="O145" s="13">
+        <f>SUM(O15:O143</f>
+        <v>62.3151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J150" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K150" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L150" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M150" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="N150" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O150" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" t="s">
+        <v>681</v>
+      </c>
+      <c r="B151" t="s">
+        <v>682</v>
+      </c>
+      <c r="C151" t="s">
+        <v>683</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <f>B1*1</f>
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>684</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>685</v>
+      </c>
+      <c r="L151" t="s">
+        <v>686</v>
+      </c>
+      <c r="N151" s="13">
+        <v>0</v>
+      </c>
+      <c r="O151" s="13">
+        <f>N151*1</f>
         <v>0</v>
       </c>
     </row>
@@ -8856,16 +8914,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A118:O118">
-    <cfRule type="expression" dxfId="0" priority="417">
+    <cfRule type="expression" dxfId="0" priority="413">
       <formula>OR(ISBLANK($G118), $G118="")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="418">
+    <cfRule type="expression" dxfId="1" priority="414">
       <formula>MAX($H118, $I118)&lt;$E118</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="419">
+    <cfRule type="expression" dxfId="2" priority="415">
       <formula>AND(MAX($H118, $I118)&gt;=$E118, $E118/($H118 + $I118)&lt;0.1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="420">
+    <cfRule type="expression" dxfId="3" priority="416">
       <formula>AND(MAX($H118, $I118)&gt;=$E118, $E118/($H118 + $I118)&gt;=0.1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9205,18 +9263,32 @@
       <formula>AND(MAX($H142, $I142)&gt;=$E142, $E142/($H142 + $I142)&gt;=0.1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A150:O150">
-    <cfRule type="expression" dxfId="0" priority="413">
-      <formula>OR(ISBLANK($G150), $G150="")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="414">
-      <formula>MAX($H150, $I150)&lt;$E150</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="415">
-      <formula>AND(MAX($H150, $I150)&gt;=$E150, $E150/($H150 + $I150)&lt;0.1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="416">
-      <formula>AND(MAX($H150, $I150)&gt;=$E150, $E150/($H150 + $I150)&gt;=0.1)</formula>
+  <conditionalFormatting sqref="A143:O143">
+    <cfRule type="expression" dxfId="0" priority="517">
+      <formula>OR(ISBLANK($G143), $G143="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="518">
+      <formula>MAX($H143, $I143)&lt;$E143</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="519">
+      <formula>AND(MAX($H143, $I143)&gt;=$E143, $E143/($H143 + $I143)&lt;0.1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="520">
+      <formula>AND(MAX($H143, $I143)&gt;=$E143, $E143/($H143 + $I143)&gt;=0.1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:O151">
+    <cfRule type="expression" dxfId="0" priority="417">
+      <formula>OR(ISBLANK($G151), $G151="")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="418">
+      <formula>MAX($H151, $I151)&lt;$E151</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="419">
+      <formula>AND(MAX($H151, $I151)&gt;=$E151, $E151/($H151 + $I151)&lt;0.1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="420">
+      <formula>AND(MAX($H151, $I151)&gt;=$E151, $E151/($H151 + $I151)&gt;=0.1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:O15">

--- a/BR-103907-002_RevB_PCBA_Outputs/PingDevKit Stock Info.xlsx
+++ b/BR-103907-002_RevB_PCBA_Outputs/PingDevKit Stock Info.xlsx
@@ -37,7 +37,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2025-12-19T11:46:41-0800</t>
+    <t>2025-12-19T12:00:13-0800</t>
   </si>
   <si>
     <t>Legend</t>
